--- a/biology/Botanique/Pecopteris/Pecopteris.xlsx
+++ b/biology/Botanique/Pecopteris/Pecopteris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pecopteris est un genre fossile de fougères arborescentes du Paléozoïque moyen (Carbonifère).
-De nombreuses espèces de Pecopteris proviennent de la Flore de Wuda[1], aussi surnommée « Pompéi végétal », une forêt fossilisée datée à - 298 millions d’années, soit au tout début du Permien, en Mongolie intérieure, en Chine[2].
+De nombreuses espèces de Pecopteris proviennent de la Flore de Wuda, aussi surnommée « Pompéi végétal », une forêt fossilisée datée à - 298 millions d’années, soit au tout début du Permien, en Mongolie intérieure, en Chine.
 </t>
         </is>
       </c>
@@ -514,10 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Historique
-Le (sous-)genre Pecopteris a été initialement décrit en 1822 pour l'espèce type Pecopteris pennaeformis (basionyme : Filicites pennaeformis)[3] par Adolphe Brongniart en tant que section du genre Filicites. Il a été élevé au rang de genre par Kaspar Maria von Sternberg en 1825[4]. Alexander Borissowitsch Doweld (d) en 2012[5] a proposé de conserver le nom Pecopteris contre Filicites, mais cela a été rendu inutile lorsque Filicites a été recommandé comme nom rejeté par le Comité de nomenclature des fossiles[6],[4].
-Étymologie
-Composé de péco, du grec πέκος / pekos, « toison non travaillée », et πτέρυ / pteris, « fougère », lui-même dérivé de πτέρον / pteron, « aile », qui fait référence aux feuilles de cette plante qui ressemblent à des plumes[7],[8].
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le (sous-)genre Pecopteris a été initialement décrit en 1822 pour l'espèce type Pecopteris pennaeformis (basionyme : Filicites pennaeformis) par Adolphe Brongniart en tant que section du genre Filicites. Il a été élevé au rang de genre par Kaspar Maria von Sternberg en 1825. Alexander Borissowitsch Doweld (d) en 2012 a proposé de conserver le nom Pecopteris contre Filicites, mais cela a été rendu inutile lorsque Filicites a été recommandé comme nom rejeté par le Comité de nomenclature des fossiles,.
 </t>
         </is>
       </c>
@@ -543,13 +558,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Classification</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ces fougères présentent des frondes composés de pennes, elles-mêmes composées de pinnules à nervures médianes et avec des nervures latérales, le tout attaché au rachis avec une base entière[1],[9]. Les frondes de type Pecopteris appartiennent principalement aux fougères de l'ordre des Marattiales, parfois aussi aux fougères leptosporangiées, mais rarement aux Pteridospermatophyta. L'affiliation peut être confirmée en fonction des organes reproducteurs ou des caractéristiques anatomiques du rachis[1].
-Il a bien été démontré que certaines espèces de Pecopteris étaient des fougères marattiales à cause de la présence de sporanges de type Asterotheca, Scolecopteris ou Acitheca ou la présence d’un rachis de type Rothwellpteris. Quelques espèces filicales telles que Oligocarpia gothanii portaient également des pinnules pecopterimorphes. Cependant, la plupart d'entre elles manquent de détails d'organes anatomiques fertiles, ce qui rend leur affinité incertaine[1]. Moins fréquemment, les rachis ayant des caractéristiques anatomiques se trouvent dans les roches de tuf volcanique qui peuvent préserver des spécimens de plus grande taille[1].
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Composé de péco, du grec πέκος / pekos, « toison non travaillée », et πτέρυ / pteris, « fougère », lui-même dérivé de πτέρον / pteron, « aile », qui fait référence aux feuilles de cette plante qui ressemblent à des plumes,.
 </t>
         </is>
       </c>
@@ -575,15 +595,51 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces fougères présentent des frondes composés de pennes, elles-mêmes composées de pinnules à nervures médianes et avec des nervures latérales, le tout attaché au rachis avec une base entière,. Les frondes de type Pecopteris appartiennent principalement aux fougères de l'ordre des Marattiales, parfois aussi aux fougères leptosporangiées, mais rarement aux Pteridospermatophyta. L'affiliation peut être confirmée en fonction des organes reproducteurs ou des caractéristiques anatomiques du rachis.
+Il a bien été démontré que certaines espèces de Pecopteris étaient des fougères marattiales à cause de la présence de sporanges de type Asterotheca, Scolecopteris ou Acitheca ou la présence d’un rachis de type Rothwellpteris. Quelques espèces filicales telles que Oligocarpia gothanii portaient également des pinnules pecopterimorphes. Cependant, la plupart d'entre elles manquent de détails d'organes anatomiques fertiles, ce qui rend leur affinité incertaine. Moins fréquemment, les rachis ayant des caractéristiques anatomiques se trouvent dans les roches de tuf volcanique qui peuvent préserver des spécimens de plus grande taille.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pecopteris</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pecopteris</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Environ 61 espèces de Pecopteris datant du paléozoïque ont été signalées en Chine[1]. En France, on peut trouver des fossiles dans les bassins houiller du nord de la France (ancienne mine de charbon) ou dans l’Hérault, notamment à Graissessac[7],[9].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Environ 61 espèces de Pecopteris datant du paléozoïque ont été signalées en Chine. En France, on peut trouver des fossiles dans les bassins houiller du nord de la France (ancienne mine de charbon) ou dans l’Hérault, notamment à Graissessac,.
 Quelques espèces :
 PecopterisPecopteris polymorphaPecopteris bucklandiiPecopteris arborescensPecopteris plumosa
-Selon The International Fossil Plant Names Index (IFPNI)                (21 octobre 2023)[10] :
+Selon The International Fossil Plant Names Index (IFPNI)                (21 octobre 2023) :
 †Pecopteris sous-genre Aplophlebis
 †Pecopteris sous-genre Campylopteris
 †Pecopteris sous-genre Dicrophlebis
@@ -1057,31 +1113,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Pecopteris</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Pecopteris</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(de) K. M. Sternberg, Versuch einer geognostisch-botanischen Darstellung der Flora der Vorwelt, vol. 1, fascicule 4, Prague, Leipzig et Regensburg, Commission im Deutschen Museum, Fr. Fleischer et Ernst Brenck's Wittwe, 1825 (lire en ligne ), p. 1–48, planches 40-59</t>
         </is>
